--- a/static/uploads/_2025-06-18.xlsx
+++ b/static/uploads/_2025-06-18.xlsx
@@ -3580,25 +3580,13 @@
       <c r="S2" s="73" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B3" s="71" t="inlineStr"/>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="73" t="n"/>
-      <c r="E3" s="71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E3" s="71" t="inlineStr"/>
       <c r="F3" s="72" t="n"/>
       <c r="G3" s="73" t="n"/>
-      <c r="H3" s="71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H3" s="71" t="inlineStr"/>
       <c r="I3" s="72" t="n"/>
       <c r="J3" s="73" t="n"/>
       <c r="K3" s="71" t="inlineStr"/>
@@ -3636,11 +3624,7 @@
       <c r="H4" s="74" t="inlineStr"/>
       <c r="I4" s="75" t="n"/>
       <c r="J4" s="76" t="n"/>
-      <c r="K4" s="74" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="K4" s="74" t="inlineStr"/>
       <c r="L4" s="75" t="n"/>
       <c r="M4" s="76" t="n"/>
       <c r="P4" s="5">
@@ -4765,25 +4749,13 @@
       <c r="S2" s="73" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B3" s="71" t="inlineStr"/>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="73" t="n"/>
-      <c r="E3" s="71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E3" s="71" t="inlineStr"/>
       <c r="F3" s="72" t="n"/>
       <c r="G3" s="73" t="n"/>
-      <c r="H3" s="71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H3" s="71" t="inlineStr"/>
       <c r="I3" s="72" t="n"/>
       <c r="J3" s="73" t="n"/>
       <c r="K3" s="71" t="inlineStr"/>
@@ -4821,11 +4793,7 @@
       <c r="H4" s="74" t="inlineStr"/>
       <c r="I4" s="75" t="n"/>
       <c r="J4" s="76" t="n"/>
-      <c r="K4" s="74" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="K4" s="74" t="inlineStr"/>
       <c r="L4" s="75" t="n"/>
       <c r="M4" s="76" t="n"/>
       <c r="P4" s="5">
@@ -5950,25 +5918,13 @@
       <c r="S2" s="73" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B3" s="71" t="inlineStr"/>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="73" t="n"/>
-      <c r="E3" s="71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E3" s="71" t="inlineStr"/>
       <c r="F3" s="72" t="n"/>
       <c r="G3" s="73" t="n"/>
-      <c r="H3" s="71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H3" s="71" t="inlineStr"/>
       <c r="I3" s="72" t="n"/>
       <c r="J3" s="73" t="n"/>
       <c r="K3" s="71" t="inlineStr"/>
@@ -6006,11 +5962,7 @@
       <c r="H4" s="74" t="inlineStr"/>
       <c r="I4" s="75" t="n"/>
       <c r="J4" s="76" t="n"/>
-      <c r="K4" s="74" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="K4" s="74" t="inlineStr"/>
       <c r="L4" s="75" t="n"/>
       <c r="M4" s="76" t="n"/>
       <c r="P4" s="5">
@@ -7135,25 +7087,13 @@
       <c r="S2" s="73" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B3" s="71" t="inlineStr"/>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="73" t="n"/>
-      <c r="E3" s="71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E3" s="71" t="inlineStr"/>
       <c r="F3" s="72" t="n"/>
       <c r="G3" s="73" t="n"/>
-      <c r="H3" s="71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H3" s="71" t="inlineStr"/>
       <c r="I3" s="72" t="n"/>
       <c r="J3" s="73" t="n"/>
       <c r="K3" s="71" t="inlineStr"/>
@@ -7191,11 +7131,7 @@
       <c r="H4" s="74" t="inlineStr"/>
       <c r="I4" s="75" t="n"/>
       <c r="J4" s="76" t="n"/>
-      <c r="K4" s="74" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="K4" s="74" t="inlineStr"/>
       <c r="L4" s="75" t="n"/>
       <c r="M4" s="76" t="n"/>
       <c r="P4" s="5">
@@ -8320,25 +8256,13 @@
       <c r="S2" s="73" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B3" s="71" t="inlineStr"/>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="73" t="n"/>
-      <c r="E3" s="71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E3" s="71" t="inlineStr"/>
       <c r="F3" s="72" t="n"/>
       <c r="G3" s="73" t="n"/>
-      <c r="H3" s="71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H3" s="71" t="inlineStr"/>
       <c r="I3" s="72" t="n"/>
       <c r="J3" s="73" t="n"/>
       <c r="K3" s="71" t="inlineStr"/>
@@ -8367,32 +8291,16 @@
           <t>Dilution Series</t>
         </is>
       </c>
-      <c r="B4" s="74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B4" s="74" t="inlineStr"/>
       <c r="C4" s="75" t="n"/>
       <c r="D4" s="76" t="n"/>
-      <c r="E4" s="74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E4" s="74" t="inlineStr"/>
       <c r="F4" s="75" t="n"/>
       <c r="G4" s="76" t="n"/>
-      <c r="H4" s="74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="H4" s="74" t="inlineStr"/>
       <c r="I4" s="75" t="n"/>
       <c r="J4" s="76" t="n"/>
-      <c r="K4" s="74" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="K4" s="74" t="inlineStr"/>
       <c r="L4" s="75" t="n"/>
       <c r="M4" s="76" t="n"/>
       <c r="P4" s="5">
@@ -9519,25 +9427,13 @@
       <c r="S2" s="73" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B3" s="71" t="inlineStr"/>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="73" t="n"/>
-      <c r="E3" s="71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E3" s="71" t="inlineStr"/>
       <c r="F3" s="72" t="n"/>
       <c r="G3" s="73" t="n"/>
-      <c r="H3" s="71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H3" s="71" t="inlineStr"/>
       <c r="I3" s="72" t="n"/>
       <c r="J3" s="73" t="n"/>
       <c r="K3" s="71" t="inlineStr"/>
@@ -9566,32 +9462,16 @@
           <t>Dilution Series</t>
         </is>
       </c>
-      <c r="B4" s="74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B4" s="74" t="inlineStr"/>
       <c r="C4" s="75" t="n"/>
       <c r="D4" s="76" t="n"/>
-      <c r="E4" s="74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E4" s="74" t="inlineStr"/>
       <c r="F4" s="75" t="n"/>
       <c r="G4" s="76" t="n"/>
-      <c r="H4" s="74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H4" s="74" t="inlineStr"/>
       <c r="I4" s="75" t="n"/>
       <c r="J4" s="76" t="n"/>
-      <c r="K4" s="74" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="K4" s="74" t="inlineStr"/>
       <c r="L4" s="75" t="n"/>
       <c r="M4" s="76" t="n"/>
       <c r="P4" s="5">
@@ -10716,25 +10596,13 @@
       <c r="S2" s="73" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B3" s="71" t="inlineStr"/>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="73" t="n"/>
-      <c r="E3" s="71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E3" s="71" t="inlineStr"/>
       <c r="F3" s="72" t="n"/>
       <c r="G3" s="73" t="n"/>
-      <c r="H3" s="71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H3" s="71" t="inlineStr"/>
       <c r="I3" s="72" t="n"/>
       <c r="J3" s="73" t="n"/>
       <c r="K3" s="71" t="inlineStr"/>
@@ -10763,32 +10631,16 @@
           <t>Dilution Series</t>
         </is>
       </c>
-      <c r="B4" s="74" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B4" s="74" t="inlineStr"/>
       <c r="C4" s="75" t="n"/>
       <c r="D4" s="76" t="n"/>
-      <c r="E4" s="74" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E4" s="74" t="inlineStr"/>
       <c r="F4" s="75" t="n"/>
       <c r="G4" s="76" t="n"/>
-      <c r="H4" s="74" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H4" s="74" t="inlineStr"/>
       <c r="I4" s="75" t="n"/>
       <c r="J4" s="76" t="n"/>
-      <c r="K4" s="74" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="K4" s="74" t="inlineStr"/>
       <c r="L4" s="75" t="n"/>
       <c r="M4" s="76" t="n"/>
       <c r="P4" s="5">
@@ -11913,25 +11765,13 @@
       <c r="S2" s="73" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B3" s="71" t="inlineStr"/>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="73" t="n"/>
-      <c r="E3" s="71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E3" s="71" t="inlineStr"/>
       <c r="F3" s="72" t="n"/>
       <c r="G3" s="73" t="n"/>
-      <c r="H3" s="71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H3" s="71" t="inlineStr"/>
       <c r="I3" s="72" t="n"/>
       <c r="J3" s="73" t="n"/>
       <c r="K3" s="71" t="inlineStr"/>
@@ -11960,32 +11800,16 @@
           <t>Dilution Series</t>
         </is>
       </c>
-      <c r="B4" s="74" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B4" s="74" t="inlineStr"/>
       <c r="C4" s="75" t="n"/>
       <c r="D4" s="76" t="n"/>
-      <c r="E4" s="74" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="E4" s="74" t="inlineStr"/>
       <c r="F4" s="75" t="n"/>
       <c r="G4" s="76" t="n"/>
-      <c r="H4" s="74" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="H4" s="74" t="inlineStr"/>
       <c r="I4" s="75" t="n"/>
       <c r="J4" s="76" t="n"/>
-      <c r="K4" s="74" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="K4" s="74" t="inlineStr"/>
       <c r="L4" s="75" t="n"/>
       <c r="M4" s="76" t="n"/>
       <c r="P4" s="5">
@@ -13110,25 +12934,13 @@
       <c r="S2" s="73" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B3" s="71" t="inlineStr"/>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="73" t="n"/>
-      <c r="E3" s="71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E3" s="71" t="inlineStr"/>
       <c r="F3" s="72" t="n"/>
       <c r="G3" s="73" t="n"/>
-      <c r="H3" s="71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H3" s="71" t="inlineStr"/>
       <c r="I3" s="72" t="n"/>
       <c r="J3" s="73" t="n"/>
       <c r="K3" s="71" t="inlineStr"/>
@@ -13157,32 +12969,16 @@
           <t>Dilution Series</t>
         </is>
       </c>
-      <c r="B4" s="74" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B4" s="74" t="inlineStr"/>
       <c r="C4" s="75" t="n"/>
       <c r="D4" s="76" t="n"/>
-      <c r="E4" s="74" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="E4" s="74" t="inlineStr"/>
       <c r="F4" s="75" t="n"/>
       <c r="G4" s="76" t="n"/>
-      <c r="H4" s="74" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="H4" s="74" t="inlineStr"/>
       <c r="I4" s="75" t="n"/>
       <c r="J4" s="76" t="n"/>
-      <c r="K4" s="74" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="K4" s="74" t="inlineStr"/>
       <c r="L4" s="75" t="n"/>
       <c r="M4" s="76" t="n"/>
       <c r="P4" s="5">
@@ -14307,25 +14103,13 @@
       <c r="S2" s="73" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B3" s="71" t="inlineStr"/>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="73" t="n"/>
-      <c r="E3" s="71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E3" s="71" t="inlineStr"/>
       <c r="F3" s="72" t="n"/>
       <c r="G3" s="73" t="n"/>
-      <c r="H3" s="71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H3" s="71" t="inlineStr"/>
       <c r="I3" s="72" t="n"/>
       <c r="J3" s="73" t="n"/>
       <c r="K3" s="71" t="inlineStr"/>
@@ -14363,11 +14147,7 @@
       <c r="H4" s="74" t="inlineStr"/>
       <c r="I4" s="75" t="n"/>
       <c r="J4" s="76" t="n"/>
-      <c r="K4" s="74" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="K4" s="74" t="inlineStr"/>
       <c r="L4" s="75" t="n"/>
       <c r="M4" s="76" t="n"/>
       <c r="P4" s="5">
@@ -15492,25 +15272,13 @@
       <c r="S2" s="73" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B3" s="71" t="inlineStr"/>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="73" t="n"/>
-      <c r="E3" s="71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E3" s="71" t="inlineStr"/>
       <c r="F3" s="72" t="n"/>
       <c r="G3" s="73" t="n"/>
-      <c r="H3" s="71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H3" s="71" t="inlineStr"/>
       <c r="I3" s="72" t="n"/>
       <c r="J3" s="73" t="n"/>
       <c r="K3" s="71" t="inlineStr"/>
@@ -15548,11 +15316,7 @@
       <c r="H4" s="74" t="inlineStr"/>
       <c r="I4" s="75" t="n"/>
       <c r="J4" s="76" t="n"/>
-      <c r="K4" s="74" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="K4" s="74" t="inlineStr"/>
       <c r="L4" s="75" t="n"/>
       <c r="M4" s="76" t="n"/>
       <c r="P4" s="5">
@@ -16677,25 +16441,13 @@
       <c r="S2" s="73" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B3" s="71" t="inlineStr"/>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="73" t="n"/>
-      <c r="E3" s="71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E3" s="71" t="inlineStr"/>
       <c r="F3" s="72" t="n"/>
       <c r="G3" s="73" t="n"/>
-      <c r="H3" s="71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H3" s="71" t="inlineStr"/>
       <c r="I3" s="72" t="n"/>
       <c r="J3" s="73" t="n"/>
       <c r="K3" s="71" t="inlineStr"/>
@@ -16733,11 +16485,7 @@
       <c r="H4" s="74" t="inlineStr"/>
       <c r="I4" s="75" t="n"/>
       <c r="J4" s="76" t="n"/>
-      <c r="K4" s="74" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="K4" s="74" t="inlineStr"/>
       <c r="L4" s="75" t="n"/>
       <c r="M4" s="76" t="n"/>
       <c r="P4" s="5">
